--- a/Ejercicio_Marca/Clasificacion.xlsx
+++ b/Ejercicio_Marca/Clasificacion.xlsx
@@ -71,13 +71,13 @@
     <x:t>Sevilla</x:t>
   </x:si>
   <x:si>
+    <x:t>Osasuna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valencia</x:t>
+  </x:si>
+  <x:si>
     <x:t>Girona</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Osasuna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valencia</x:t>
   </x:si>
   <x:si>
     <x:t>Espanyol</x:t>
@@ -605,7 +605,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B14" s="0">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C14" s="0">
         <x:v>13</x:v>
@@ -660,7 +660,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B19" s="0">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C19" s="0">
         <x:v>18</x:v>
